--- a/Documentação/Backlog/backlog.xlsx
+++ b/Documentação/Backlog/backlog.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\BandTec\aulas ead 2º sem\Mind6\Documentação\Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Desktop\Mind6\Mind6\Documentação\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4B6C42-6C67-47F9-ABA9-5E1A263B55B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D565C5-A6DE-451F-B5F4-04268202A0EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,67 +25,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>Essencial</t>
   </si>
   <si>
-    <t>Tela de Login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tela de Cadastro </t>
-  </si>
-  <si>
-    <t>Envio de mensagem via Telegram</t>
-  </si>
-  <si>
     <t>Dashboards com informações dos componentes do Hardware</t>
   </si>
   <si>
-    <t>Gerar relatórios de erros</t>
-  </si>
-  <si>
-    <t>Script do Banco de Dados (Azure)</t>
-  </si>
-  <si>
-    <t>Site Institucional</t>
-  </si>
-  <si>
     <t>Captação de Dados de Hardwares</t>
   </si>
   <si>
-    <t>Tela de Usuário</t>
-  </si>
-  <si>
-    <t>Integrar banco de dados com a plataforma web</t>
-  </si>
-  <si>
-    <t>Integrar banco de dados com a aplicação</t>
-  </si>
-  <si>
-    <t>Modelo lógico de dados (MER)</t>
-  </si>
-  <si>
-    <t>Página Web de consulta dos dados e Dashboards</t>
-  </si>
-  <si>
     <t>Classificação</t>
   </si>
   <si>
-    <t>Importante</t>
-  </si>
-  <si>
-    <t>Aplicação Java</t>
-  </si>
-  <si>
-    <t>Tarefas</t>
+    <t>Script de inserção de dados</t>
+  </si>
+  <si>
+    <t>Modelo lógico de dados</t>
+  </si>
+  <si>
+    <t>Página Web de Cadastro</t>
+  </si>
+  <si>
+    <t>Página Web de Login</t>
+  </si>
+  <si>
+    <t>Ferramenta de HelpDesk</t>
+  </si>
+  <si>
+    <t>Banco de Dados na Nuvem</t>
+  </si>
+  <si>
+    <t>Gerar relatórios</t>
+  </si>
+  <si>
+    <t>Enviar mensagens via Telegram</t>
+  </si>
+  <si>
+    <t>Avisos de erros</t>
+  </si>
+  <si>
+    <t>Bloquear processos</t>
+  </si>
+  <si>
+    <t>BackLog</t>
+  </si>
+  <si>
+    <t>Desejável</t>
+  </si>
+  <si>
+    <t>Prioridade</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Média</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,14 +103,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,24 +113,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -142,11 +127,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -154,17 +154,26 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -174,7 +183,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -182,23 +191,106 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -207,28 +299,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,211 +626,387 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA74D22E-D97A-4A36-8A23-C71CA6BE156D}">
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" customWidth="1"/>
-    <col min="2" max="2" width="56.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="8" t="s">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="P13" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="8" t="s">
+      <c r="P14" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="P17" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:C2"/>
+  <mergeCells count="13">
+    <mergeCell ref="F16:N16"/>
+    <mergeCell ref="F17:N17"/>
+    <mergeCell ref="F11:N11"/>
+    <mergeCell ref="F12:N12"/>
+    <mergeCell ref="F13:N13"/>
+    <mergeCell ref="F14:N14"/>
+    <mergeCell ref="F15:N15"/>
+    <mergeCell ref="F5:N5"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="F8:N8"/>
+    <mergeCell ref="F9:N9"/>
+    <mergeCell ref="F10:N10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentação/Backlog/backlog.xlsx
+++ b/Documentação/Backlog/backlog.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Desktop\Mind6\Mind6\Documentação\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D565C5-A6DE-451F-B5F4-04268202A0EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162198BD-303B-48CC-BFD8-7DE3923DE4B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
+    <sheet name="Planilha" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="49">
   <si>
     <t>Essencial</t>
   </si>
@@ -82,13 +82,103 @@
   </si>
   <si>
     <t>Média</t>
+  </si>
+  <si>
+    <t>Tarefas</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Site Institucional</t>
+  </si>
+  <si>
+    <t>Página inicial</t>
+  </si>
+  <si>
+    <t>Página de Login</t>
+  </si>
+  <si>
+    <t>Página de Cadastro</t>
+  </si>
+  <si>
+    <t>Modelagem de dados (Lógico)</t>
+  </si>
+  <si>
+    <t>Modelagem de dados (Conceitual)</t>
+  </si>
+  <si>
+    <t>Proto-Persona</t>
+  </si>
+  <si>
+    <t>StoryBoard</t>
+  </si>
+  <si>
+    <t>UserStorys</t>
+  </si>
+  <si>
+    <t>Contextualização</t>
+  </si>
+  <si>
+    <t>Crazy 8s</t>
+  </si>
+  <si>
+    <t>Canvas</t>
+  </si>
+  <si>
+    <t>Cliente Linux</t>
+  </si>
+  <si>
+    <t>Apresentação de Slides</t>
+  </si>
+  <si>
+    <t>Script do Banco de Dados (Azure)</t>
+  </si>
+  <si>
+    <t>Requisitos</t>
+  </si>
+  <si>
+    <t>Atribuidos</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>Gabriel/Castione/Felipe/Yudi</t>
+  </si>
+  <si>
+    <t>Yudi</t>
+  </si>
+  <si>
+    <t>Felipe/César/Vicari</t>
+  </si>
+  <si>
+    <t>Lean Ux</t>
+  </si>
+  <si>
+    <t>Baixa</t>
+  </si>
+  <si>
+    <t>Fazendo</t>
+  </si>
+  <si>
+    <t>Não Iniciado</t>
+  </si>
+  <si>
+    <t>Concluido</t>
+  </si>
+  <si>
+    <t>Yudi/Felipe</t>
+  </si>
+  <si>
+    <t>Felipe/Yudi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,49 +186,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -162,17 +224,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -183,76 +234,8 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -299,60 +282,228 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE8E8E8"/>
+      <color rgb="FFF88CD9"/>
+      <color rgb="FFA383FD"/>
+      <color rgb="FF8C64FC"/>
+      <color rgb="FF7F52FC"/>
+      <color rgb="FFCFBEFE"/>
+      <color rgb="FFDA6060"/>
+      <color rgb="FFE2C4DC"/>
+      <color rgb="FFF7F7E5"/>
+      <color rgb="FF54D1F8"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -362,6 +513,40 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{790BF426-3166-4ADE-AA13-1E47202751F1}" name="Tabela9" displayName="Tabela9" ref="F1:I18" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="10">
+  <autoFilter ref="F1:I18" xr:uid="{88EC5994-83AA-49C2-95D5-5D462715856F}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{E5A2884A-AC66-4FA7-8D6D-1A307CD06EEB}" name="Tarefas" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{4C4CE463-0A9B-4377-BE26-9DDE5C250822}" name="Prioridade" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{98408341-CE7B-4353-9E71-B854BE00F8E2}" name="Status" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{9F439EFC-DFAF-471F-BC92-B80C9AD4D49C}" name="Atribuidos" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A9C2F173-C49B-42FE-AD89-B41469A1A209}" name="Tabela11" displayName="Tabela11" ref="B2:D15" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="4">
+  <autoFilter ref="B2:D15" xr:uid="{59808F07-3281-4454-A044-686B6C49FAEA}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{919E5654-60D8-47A9-9ADF-1483731E1AFD}" name="BackLog" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{A68969C8-98EE-4A0A-969E-F57A1E39322B}" name="Classificação" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{208B8D16-0364-498D-9399-9884BE0F1BA4}" name="Prioridade" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -627,386 +812,415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA74D22E-D97A-4A36-8A23-C71CA6BE156D}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="8.28515625" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="48" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F5" s="3" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="F1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="6" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="D2" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F6" s="7" t="s">
+      <c r="F2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="20" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P6" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F7" s="1" t="s">
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="19" t="s">
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="P7" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F8" s="1" t="s">
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="19" t="s">
+      <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="P8" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F9" s="1" t="s">
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="19" t="s">
+      <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="P9" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F10" s="1" t="s">
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="19" t="s">
+      <c r="C7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="P10" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F11" s="1" t="s">
+      <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="19" t="s">
+      <c r="C8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="P11" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F12" s="1" t="s">
+      <c r="D8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="19" t="s">
+      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P12" s="15" t="s">
+      <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F13" s="1" t="s">
+      <c r="F9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="19" t="s">
+      <c r="C10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="P13" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F14" s="1" t="s">
+      <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="19" t="s">
+      <c r="C11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="P14" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F15" s="1" t="s">
+      <c r="D11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="19" t="s">
+      <c r="C12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="P15" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F16" s="1" t="s">
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="19" t="s">
+      <c r="C13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="P16" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F17" s="11" t="s">
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="C14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="P17" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="F16:N16"/>
-    <mergeCell ref="F17:N17"/>
-    <mergeCell ref="F11:N11"/>
-    <mergeCell ref="F12:N12"/>
-    <mergeCell ref="F13:N13"/>
-    <mergeCell ref="F14:N14"/>
-    <mergeCell ref="F15:N15"/>
-    <mergeCell ref="F5:N5"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="F8:N8"/>
-    <mergeCell ref="F9:N9"/>
-    <mergeCell ref="F10:N10"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Documentação/Backlog/backlog.xlsx
+++ b/Documentação/Backlog/backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Desktop\Mind6\Mind6\Documentação\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162198BD-303B-48CC-BFD8-7DE3923DE4B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00EA474-3061-4082-B616-AA3580298C0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="56">
   <si>
     <t>Essencial</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Todos</t>
   </si>
   <si>
-    <t>Gabriel/Castione/Felipe/Yudi</t>
-  </si>
-  <si>
     <t>Yudi</t>
   </si>
   <si>
@@ -172,6 +169,30 @@
   </si>
   <si>
     <t>Felipe/Yudi</t>
+  </si>
+  <si>
+    <t>Gabriel/Castione/César</t>
+  </si>
+  <si>
+    <t>Página "Quem Somos"</t>
+  </si>
+  <si>
+    <t>Funcional/Não Funcional</t>
+  </si>
+  <si>
+    <t>Funcional</t>
+  </si>
+  <si>
+    <t>Página web acessada remotamente</t>
+  </si>
+  <si>
+    <t>Não Funcional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitir alterações no perfil do usuário </t>
+  </si>
+  <si>
+    <t>Dificuldade</t>
   </si>
 </sst>
 </file>
@@ -195,7 +216,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -278,33 +299,241 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -324,35 +553,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -403,89 +603,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -516,34 +633,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{790BF426-3166-4ADE-AA13-1E47202751F1}" name="Tabela9" displayName="Tabela9" ref="F1:I18" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="10">
-  <autoFilter ref="F1:I18" xr:uid="{88EC5994-83AA-49C2-95D5-5D462715856F}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{790BF426-3166-4ADE-AA13-1E47202751F1}" name="Tabela9" displayName="Tabela9" ref="G1:J19" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="G1:J19" xr:uid="{88EC5994-83AA-49C2-95D5-5D462715856F}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E5A2884A-AC66-4FA7-8D6D-1A307CD06EEB}" name="Tarefas" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{4C4CE463-0A9B-4377-BE26-9DDE5C250822}" name="Prioridade" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{98408341-CE7B-4353-9E71-B854BE00F8E2}" name="Status" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{9F439EFC-DFAF-471F-BC92-B80C9AD4D49C}" name="Atribuidos" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{E5A2884A-AC66-4FA7-8D6D-1A307CD06EEB}" name="Tarefas" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{4C4CE463-0A9B-4377-BE26-9DDE5C250822}" name="Prioridade" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{98408341-CE7B-4353-9E71-B854BE00F8E2}" name="Status" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{9F439EFC-DFAF-471F-BC92-B80C9AD4D49C}" name="Atribuidos" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A9C2F173-C49B-42FE-AD89-B41469A1A209}" name="Tabela11" displayName="Tabela11" ref="B2:D15" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="4">
-  <autoFilter ref="B2:D15" xr:uid="{59808F07-3281-4454-A044-686B6C49FAEA}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A9C2F173-C49B-42FE-AD89-B41469A1A209}" name="Tabela11" displayName="Tabela11" ref="A2:E17" totalsRowShown="0" headerRowDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="A2:E17" xr:uid="{59808F07-3281-4454-A044-686B6C49FAEA}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{919E5654-60D8-47A9-9ADF-1483731E1AFD}" name="BackLog" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{A68969C8-98EE-4A0A-969E-F57A1E39322B}" name="Classificação" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{208B8D16-0364-498D-9399-9884BE0F1BA4}" name="Prioridade" dataDxfId="1"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{919E5654-60D8-47A9-9ADF-1483731E1AFD}" name="BackLog" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{A68969C8-98EE-4A0A-969E-F57A1E39322B}" name="Classificação" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{208B8D16-0364-498D-9399-9884BE0F1BA4}" name="Prioridade" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{C9A670FA-54D8-4A99-B56B-614FC1239D9E}" name="Funcional/Não Funcional" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{D53AC345-E337-4799-ADC3-8693459DF325}" name="Dificuldade" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -812,407 +933,534 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA74D22E-D97A-4A36-8A23-C71CA6BE156D}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="A2:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="48" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="38" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.28515625" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="F1" s="16" t="s">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="G1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="D2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="10">
+        <v>21</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="10">
+        <v>13</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="10">
+        <v>8</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="10">
+        <v>3</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="10">
+        <v>5</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="10">
+        <v>5</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="10">
+        <v>5</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="10">
+        <v>8</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="10">
+        <v>5</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J11" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="C12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="10">
+        <v>21</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="10">
+        <v>13</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="10">
+        <v>8</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="10">
+        <v>21</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="10">
+        <v>8</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J16" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="10">
+        <v>21</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G18" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G19" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="21" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F16" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F17" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F18" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/Backlog/backlog.xlsx
+++ b/Documentação/Backlog/backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Desktop\Mind6\Mind6\Documentação\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00EA474-3061-4082-B616-AA3580298C0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EBC57A-846B-43DC-8BCF-F2614518FD4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="56">
   <si>
     <t>Essencial</t>
   </si>
@@ -156,9 +156,6 @@
     <t>Baixa</t>
   </si>
   <si>
-    <t>Fazendo</t>
-  </si>
-  <si>
     <t>Não Iniciado</t>
   </si>
   <si>
@@ -193,6 +190,9 @@
   </si>
   <si>
     <t>Dificuldade</t>
+  </si>
+  <si>
+    <t>César</t>
   </si>
 </sst>
 </file>
@@ -356,12 +356,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -405,135 +399,29 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -553,6 +441,131 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -633,26 +646,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{790BF426-3166-4ADE-AA13-1E47202751F1}" name="Tabela9" displayName="Tabela9" ref="G1:J19" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="G1:J19" xr:uid="{88EC5994-83AA-49C2-95D5-5D462715856F}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{790BF426-3166-4ADE-AA13-1E47202751F1}" name="Tabela9" displayName="Tabela9" ref="I3:L21" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="I3:L21" xr:uid="{88EC5994-83AA-49C2-95D5-5D462715856F}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E5A2884A-AC66-4FA7-8D6D-1A307CD06EEB}" name="Tarefas" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{4C4CE463-0A9B-4377-BE26-9DDE5C250822}" name="Prioridade" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{98408341-CE7B-4353-9E71-B854BE00F8E2}" name="Status" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{9F439EFC-DFAF-471F-BC92-B80C9AD4D49C}" name="Atribuidos" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{E5A2884A-AC66-4FA7-8D6D-1A307CD06EEB}" name="Tarefas" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{4C4CE463-0A9B-4377-BE26-9DDE5C250822}" name="Prioridade" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{98408341-CE7B-4353-9E71-B854BE00F8E2}" name="Status" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{9F439EFC-DFAF-471F-BC92-B80C9AD4D49C}" name="Atribuidos" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A9C2F173-C49B-42FE-AD89-B41469A1A209}" name="Tabela11" displayName="Tabela11" ref="A2:E17" totalsRowShown="0" headerRowDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="A2:E17" xr:uid="{59808F07-3281-4454-A044-686B6C49FAEA}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A9C2F173-C49B-42FE-AD89-B41469A1A209}" name="Tabela11" displayName="Tabela11" ref="B2:F17" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="6">
+  <autoFilter ref="B2:F17" xr:uid="{59808F07-3281-4454-A044-686B6C49FAEA}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -660,11 +673,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{919E5654-60D8-47A9-9ADF-1483731E1AFD}" name="BackLog" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{A68969C8-98EE-4A0A-969E-F57A1E39322B}" name="Classificação" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{208B8D16-0364-498D-9399-9884BE0F1BA4}" name="Prioridade" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{C9A670FA-54D8-4A99-B56B-614FC1239D9E}" name="Funcional/Não Funcional" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{D53AC345-E337-4799-ADC3-8693459DF325}" name="Dificuldade" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{919E5654-60D8-47A9-9ADF-1483731E1AFD}" name="BackLog" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{A68969C8-98EE-4A0A-969E-F57A1E39322B}" name="Classificação" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{208B8D16-0364-498D-9399-9884BE0F1BA4}" name="Prioridade" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{C9A670FA-54D8-4A99-B56B-614FC1239D9E}" name="Funcional/Não Funcional" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{D53AC345-E337-4799-ADC3-8693459DF325}" name="Dificuldade" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -933,533 +946,538 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA74D22E-D97A-4A36-8A23-C71CA6BE156D}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="A2:J19"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="1" max="2" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.28515625" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" customWidth="1"/>
     <col min="14" max="14" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="G1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="4">
+        <v>21</v>
+      </c>
+      <c r="I3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L3" s="19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="4">
+        <v>13</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="4">
+        <v>8</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="4">
+        <v>5</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="4">
+        <v>5</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="4">
+        <v>8</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="4">
+        <v>21</v>
+      </c>
+      <c r="I12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="J12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="18" t="s">
+      <c r="F13" s="4">
+        <v>13</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="L13" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="4">
+        <v>8</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="4">
         <v>21</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="20" t="s">
+      <c r="I15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="4">
+        <v>8</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="4">
+        <v>21</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I18" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I19" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I20" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="10">
-        <v>13</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="10">
-        <v>8</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="10">
-        <v>3</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="10">
-        <v>5</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="10">
-        <v>5</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="21" t="s">
+      <c r="L20" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="10">
-        <v>5</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="10">
-        <v>8</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="10">
-        <v>5</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="20" t="s">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I21" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="10">
-        <v>21</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="10">
-        <v>13</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="10">
-        <v>8</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="10">
-        <v>21</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="10">
-        <v>8</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="10">
-        <v>21</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G18" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="21"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G19" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="J19" s="21" t="s">
+      <c r="L21" s="15" t="s">
         <v>39</v>
       </c>
     </row>

--- a/Documentação/Backlog/backlog.xlsx
+++ b/Documentação/Backlog/backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Desktop\Mind6\Mind6\Documentação\Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cicer\Desktop\Mind6\Mind6\Documentação\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EBC57A-846B-43DC-8BCF-F2614518FD4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92852B8E-B803-474C-BADF-DC95742F7F07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="63">
   <si>
     <t>Essencial</t>
   </si>
@@ -193,6 +193,27 @@
   </si>
   <si>
     <t>César</t>
+  </si>
+  <si>
+    <t>executáve(jar)</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>dashboard estático</t>
+  </si>
+  <si>
+    <t>médio</t>
+  </si>
+  <si>
+    <t>Não iniciado</t>
+  </si>
+  <si>
+    <t>todos</t>
+  </si>
+  <si>
+    <t>vicari,cardoso,cesar</t>
   </si>
 </sst>
 </file>
@@ -351,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -417,11 +438,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -442,63 +526,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -646,8 +673,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{790BF426-3166-4ADE-AA13-1E47202751F1}" name="Tabela9" displayName="Tabela9" ref="I3:L21" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="I3:L21" xr:uid="{88EC5994-83AA-49C2-95D5-5D462715856F}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{790BF426-3166-4ADE-AA13-1E47202751F1}" name="Tabela9" displayName="Tabela9" ref="I3:L23" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="I3:L23" xr:uid="{88EC5994-83AA-49C2-95D5-5D462715856F}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -664,7 +691,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A9C2F173-C49B-42FE-AD89-B41469A1A209}" name="Tabela11" displayName="Tabela11" ref="B2:F17" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A9C2F173-C49B-42FE-AD89-B41469A1A209}" name="Tabela11" displayName="Tabela11" ref="B2:F17" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="B2:F17" xr:uid="{59808F07-3281-4454-A044-686B6C49FAEA}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -673,11 +700,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{919E5654-60D8-47A9-9ADF-1483731E1AFD}" name="BackLog" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{A68969C8-98EE-4A0A-969E-F57A1E39322B}" name="Classificação" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{208B8D16-0364-498D-9399-9884BE0F1BA4}" name="Prioridade" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{C9A670FA-54D8-4A99-B56B-614FC1239D9E}" name="Funcional/Não Funcional" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{D53AC345-E337-4799-ADC3-8693459DF325}" name="Dificuldade" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{919E5654-60D8-47A9-9ADF-1483731E1AFD}" name="BackLog" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{A68969C8-98EE-4A0A-969E-F57A1E39322B}" name="Classificação" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{208B8D16-0364-498D-9399-9884BE0F1BA4}" name="Prioridade" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{C9A670FA-54D8-4A99-B56B-614FC1239D9E}" name="Funcional/Não Funcional" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{D53AC345-E337-4799-ADC3-8693459DF325}" name="Dificuldade" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -946,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA74D22E-D97A-4A36-8A23-C71CA6BE156D}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,6 +1508,34 @@
         <v>39</v>
       </c>
     </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I22" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I23" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentação/Backlog/backlog.xlsx
+++ b/Documentação/Backlog/backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cicer\Desktop\Mind6\Mind6\Documentação\Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Desktop\Mind6\Mind6\Documentação\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92852B8E-B803-474C-BADF-DC95742F7F07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72498082-5011-4FDD-9D44-11D3444B1845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="52">
   <si>
     <t>Essencial</t>
   </si>
@@ -93,27 +93,6 @@
     <t>Site Institucional</t>
   </si>
   <si>
-    <t>Página inicial</t>
-  </si>
-  <si>
-    <t>Página de Login</t>
-  </si>
-  <si>
-    <t>Página de Cadastro</t>
-  </si>
-  <si>
-    <t>Modelagem de dados (Lógico)</t>
-  </si>
-  <si>
-    <t>Modelagem de dados (Conceitual)</t>
-  </si>
-  <si>
-    <t>Proto-Persona</t>
-  </si>
-  <si>
-    <t>StoryBoard</t>
-  </si>
-  <si>
     <t>UserStorys</t>
   </si>
   <si>
@@ -123,9 +102,6 @@
     <t>Crazy 8s</t>
   </si>
   <si>
-    <t>Canvas</t>
-  </si>
-  <si>
     <t>Cliente Linux</t>
   </si>
   <si>
@@ -147,12 +123,6 @@
     <t>Yudi</t>
   </si>
   <si>
-    <t>Felipe/César/Vicari</t>
-  </si>
-  <si>
-    <t>Lean Ux</t>
-  </si>
-  <si>
     <t>Baixa</t>
   </si>
   <si>
@@ -162,18 +132,9 @@
     <t>Concluido</t>
   </si>
   <si>
-    <t>Yudi/Felipe</t>
-  </si>
-  <si>
     <t>Felipe/Yudi</t>
   </si>
   <si>
-    <t>Gabriel/Castione/César</t>
-  </si>
-  <si>
-    <t>Página "Quem Somos"</t>
-  </si>
-  <si>
     <t>Funcional/Não Funcional</t>
   </si>
   <si>
@@ -192,28 +153,34 @@
     <t>Dificuldade</t>
   </si>
   <si>
-    <t>César</t>
-  </si>
-  <si>
-    <t>executáve(jar)</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>dashboard estático</t>
-  </si>
-  <si>
-    <t>médio</t>
-  </si>
-  <si>
-    <t>Não iniciado</t>
-  </si>
-  <si>
-    <t>todos</t>
-  </si>
-  <si>
-    <t>vicari,cardoso,cesar</t>
+    <t>Executáve(jar)</t>
+  </si>
+  <si>
+    <t>Dashboard estático</t>
+  </si>
+  <si>
+    <t>Mockups de tela</t>
+  </si>
+  <si>
+    <t>Wireframe</t>
+  </si>
+  <si>
+    <t>Oshi</t>
+  </si>
+  <si>
+    <t>Bpmn</t>
+  </si>
+  <si>
+    <t>Telas em Swing</t>
+  </si>
+  <si>
+    <t>Guilherme,Gabriel,César</t>
+  </si>
+  <si>
+    <t>Uso da API OSHI</t>
+  </si>
+  <si>
+    <t>Utilizar a API OSHI</t>
   </si>
 </sst>
 </file>
@@ -229,12 +196,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -372,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -401,20 +374,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -444,6 +408,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,8 +647,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{790BF426-3166-4ADE-AA13-1E47202751F1}" name="Tabela9" displayName="Tabela9" ref="I3:L23" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="I3:L23" xr:uid="{88EC5994-83AA-49C2-95D5-5D462715856F}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{790BF426-3166-4ADE-AA13-1E47202751F1}" name="Tabela9" displayName="Tabela9" ref="I1:L16" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="I1:L16" xr:uid="{88EC5994-83AA-49C2-95D5-5D462715856F}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -691,8 +665,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A9C2F173-C49B-42FE-AD89-B41469A1A209}" name="Tabela11" displayName="Tabela11" ref="B2:F17" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="B2:F17" xr:uid="{59808F07-3281-4454-A044-686B6C49FAEA}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A9C2F173-C49B-42FE-AD89-B41469A1A209}" name="Tabela11" displayName="Tabela11" ref="B2:F18" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="B2:F18" xr:uid="{59808F07-3281-4454-A044-686B6C49FAEA}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -973,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA74D22E-D97A-4A36-8A23-C71CA6BE156D}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,7 +965,7 @@
     <col min="9" max="9" width="32" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" customWidth="1"/>
     <col min="14" max="14" width="29" customWidth="1"/>
   </cols>
@@ -999,25 +973,49 @@
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
+      <c r="I1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1028,22 +1026,22 @@
         <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F3" s="4">
         <v>21</v>
       </c>
-      <c r="I3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>37</v>
+      <c r="I3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1057,22 +1055,22 @@
         <v>17</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F4" s="4">
         <v>13</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>22</v>
+      <c r="I4" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>17</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1086,27 +1084,27 @@
         <v>17</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F5" s="4">
         <v>8</v>
       </c>
-      <c r="I5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>47</v>
+      <c r="I5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
-        <v>51</v>
+      <c r="B6" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>15</v>
@@ -1115,22 +1113,22 @@
         <v>18</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F6" s="4">
         <v>3</v>
       </c>
-      <c r="I6" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>47</v>
+      <c r="I6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1144,22 +1142,22 @@
         <v>17</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F7" s="4">
         <v>5</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>47</v>
+      <c r="I7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1173,22 +1171,22 @@
         <v>17</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F8" s="4">
         <v>5</v>
       </c>
-      <c r="I8" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>40</v>
+      <c r="I8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1202,22 +1200,22 @@
         <v>17</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F9" s="4">
         <v>5</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="14" t="s">
+      <c r="I9" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>40</v>
+      <c r="K9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1231,22 +1229,22 @@
         <v>18</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F10" s="4">
         <v>8</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>38</v>
+      <c r="I10" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1260,22 +1258,22 @@
         <v>17</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="I11" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="14" t="s">
+      <c r="I11" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="15" t="s">
-        <v>55</v>
+      <c r="J11" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1289,22 +1287,22 @@
         <v>17</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F12" s="4">
         <v>21</v>
       </c>
-      <c r="I12" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" s="15" t="s">
+      <c r="I12" s="22" t="s">
         <v>45</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1318,22 +1316,22 @@
         <v>17</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F13" s="4">
         <v>13</v>
       </c>
-      <c r="I13" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>39</v>
+      <c r="I13" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1347,22 +1345,22 @@
         <v>17</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F14" s="4">
         <v>8</v>
       </c>
-      <c r="I14" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>39</v>
+      <c r="I14" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1376,22 +1374,22 @@
         <v>17</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F15" s="4">
         <v>21</v>
       </c>
-      <c r="I15" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>39</v>
+      <c r="I15" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1405,27 +1403,27 @@
         <v>17</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F16" s="4">
         <v>8</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" s="15" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>15</v>
@@ -1434,107 +1432,84 @@
         <v>18</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F17" s="4">
         <v>21</v>
       </c>
-      <c r="I17" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="I17" s="24"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I18" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>46</v>
-      </c>
+      <c r="B18" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="4">
+        <v>21</v>
+      </c>
+      <c r="I18" s="24"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I19" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>39</v>
-      </c>
+      <c r="I19" s="24"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I20" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="I20" s="24"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="26"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I21" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>39</v>
-      </c>
+      <c r="I21" s="24"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="26"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I22" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>62</v>
-      </c>
+      <c r="I22" s="24"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="26"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I23" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="J23" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="K23" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>61</v>
-      </c>
+      <c r="I23" s="24"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="26"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I24" s="24"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="26"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I25" s="24"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="26"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I26" s="24"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentação/Backlog/backlog.xlsx
+++ b/Documentação/Backlog/backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Desktop\Mind6\Mind6\Documentação\Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cicer\Desktop\Mind6\Documentação\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72498082-5011-4FDD-9D44-11D3444B1845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FE1FD0-89C2-4668-875C-024EF2509671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,18 +51,12 @@
     <t>Página Web de Login</t>
   </si>
   <si>
-    <t>Ferramenta de HelpDesk</t>
-  </si>
-  <si>
     <t>Banco de Dados na Nuvem</t>
   </si>
   <si>
     <t>Gerar relatórios</t>
   </si>
   <si>
-    <t>Enviar mensagens via Telegram</t>
-  </si>
-  <si>
     <t>Avisos de erros</t>
   </si>
   <si>
@@ -181,6 +175,12 @@
   </si>
   <si>
     <t>Utilizar a API OSHI</t>
+  </si>
+  <si>
+    <t>Enviar mensagens via Slack</t>
+  </si>
+  <si>
+    <t>Ferramenta de HelpDesk(Tom ticket)</t>
   </si>
 </sst>
 </file>
@@ -368,9 +368,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -418,6 +415,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -950,7 +950,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,46 +973,46 @@
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="I1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="17" t="s">
+      <c r="I1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="J2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F3" s="4">
         <v>21</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>30</v>
+      <c r="I3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1052,25 +1052,25 @@
         <v>0</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F4" s="4">
         <v>13</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>30</v>
+      <c r="I4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1081,54 +1081,54 @@
         <v>0</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" s="4">
         <v>8</v>
       </c>
-      <c r="I5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="12" t="s">
+      <c r="I5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="13" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
-        <v>38</v>
+      <c r="B6" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F6" s="4">
         <v>3</v>
       </c>
-      <c r="I6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>31</v>
+      <c r="I6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1139,25 +1139,25 @@
         <v>0</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F7" s="4">
         <v>5</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="13" t="s">
+      <c r="I7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>30</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1168,25 +1168,25 @@
         <v>0</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" s="4">
         <v>5</v>
       </c>
-      <c r="I8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>31</v>
+      <c r="I8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1197,319 +1197,319 @@
         <v>0</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="4">
         <v>5</v>
       </c>
-      <c r="I9" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>49</v>
+      <c r="I9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="4">
         <v>8</v>
       </c>
-      <c r="I10" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>30</v>
+      <c r="I10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="I11" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>30</v>
+      <c r="I11" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" s="4">
         <v>21</v>
       </c>
-      <c r="I12" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>30</v>
+      <c r="I12" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F13" s="4">
         <v>13</v>
       </c>
-      <c r="I13" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>30</v>
+      <c r="I13" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F14" s="4">
         <v>8</v>
       </c>
-      <c r="I14" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>30</v>
+      <c r="I14" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F15" s="4">
         <v>21</v>
       </c>
-      <c r="I15" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>30</v>
+      <c r="I15" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F16" s="4">
         <v>8</v>
       </c>
-      <c r="I16" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>30</v>
+      <c r="I16" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>39</v>
+        <v>13</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="F17" s="4">
         <v>21</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>37</v>
+      <c r="D18" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>35</v>
       </c>
       <c r="F18" s="4">
         <v>21</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="25"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I20" s="24"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="26"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="25"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="26"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="25"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I22" s="24"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="26"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="25"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I23" s="24"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="26"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="25"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I24" s="24"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="26"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I25" s="24"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="26"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="25"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I26" s="24"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="26"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
